--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl28-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ccl28</t>
   </si>
   <si>
     <t>Ccr3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,51 +531,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04711899999999999</v>
+        <v>0.07943533333333333</v>
       </c>
       <c r="H2">
-        <v>0.141357</v>
+        <v>0.238306</v>
       </c>
       <c r="I2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="J2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.1790523333333333</v>
+      </c>
+      <c r="N2">
+        <v>0.537157</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M2">
-        <v>0.438062</v>
-      </c>
-      <c r="N2">
-        <v>1.314186</v>
-      </c>
-      <c r="O2">
-        <v>0.6074000808827777</v>
-      </c>
       <c r="P2">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.020641043378</v>
+        <v>0.01422308178244444</v>
       </c>
       <c r="R2">
-        <v>0.185769390402</v>
+        <v>0.128007736042</v>
       </c>
       <c r="S2">
-        <v>0.2261485929188433</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="T2">
-        <v>0.2261485929188433</v>
+        <v>0.8002511845635669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,170 +593,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04711899999999999</v>
+        <v>0.01982766666666667</v>
       </c>
       <c r="H3">
-        <v>0.141357</v>
+        <v>0.059483</v>
       </c>
       <c r="I3">
-        <v>0.3723222963522914</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="J3">
-        <v>0.3723222963522914</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1790523333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.537157</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0.2831463333333333</v>
-      </c>
-      <c r="N3">
-        <v>0.8494390000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.3925999191172223</v>
-      </c>
       <c r="P3">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01334157208033333</v>
+        <v>0.003550189981222222</v>
       </c>
       <c r="R3">
-        <v>0.120074148723</v>
+        <v>0.031951709831</v>
       </c>
       <c r="S3">
-        <v>0.146173703433448</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="T3">
-        <v>0.146173703433448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.07943533333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.238306</v>
-      </c>
-      <c r="I4">
-        <v>0.6276777036477087</v>
-      </c>
-      <c r="J4">
-        <v>0.6276777036477087</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.438062</v>
-      </c>
-      <c r="N4">
-        <v>1.314186</v>
-      </c>
-      <c r="O4">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="P4">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="Q4">
-        <v>0.03479760099066666</v>
-      </c>
-      <c r="R4">
-        <v>0.313178408916</v>
-      </c>
-      <c r="S4">
-        <v>0.3812514879639345</v>
-      </c>
-      <c r="T4">
-        <v>0.3812514879639345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.07943533333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.238306</v>
-      </c>
-      <c r="I5">
-        <v>0.6276777036477087</v>
-      </c>
-      <c r="J5">
-        <v>0.6276777036477087</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.2831463333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.8494390000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="P5">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="Q5">
-        <v>0.02249182337044444</v>
-      </c>
-      <c r="R5">
-        <v>0.202426410334</v>
-      </c>
-      <c r="S5">
-        <v>0.2464262156837742</v>
-      </c>
-      <c r="T5">
-        <v>0.2464262156837742</v>
+        <v>0.1997488154364332</v>
       </c>
     </row>
   </sheetData>
